--- a/docs/pages/tools/appearance_table_maker/excel/f_女性用コスチューム.xlsx
+++ b/docs/pages/tools/appearance_table_maker/excel/f_女性用コスチューム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\appearance_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F7E4B8-FC7B-4F01-B530-37A54131DF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA69B75-7AB3-4FFD-A445-443FF386F087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="362">
   <si>
     <t>ハニージャケット破Y</t>
   </si>
@@ -1096,6 +1096,21 @@
   </si>
   <si>
     <t>2014/12/24配信</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t>装備可能種族</t>
+  </si>
+  <si>
+    <t>素材</t>
+  </si>
+  <si>
+    <t>備考</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D583"/>
+  <dimension ref="A1:E584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1434,3988 +1449,4005 @@
     <col min="4" max="4" width="46.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:5">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
+    <row r="5" spans="1:5">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
+    <row r="7" spans="1:5">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="C7" t="s">
+    <row r="8" spans="1:5">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
+    <row r="9" spans="1:5">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="C10" t="s">
+    <row r="11" spans="1:5">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:5">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="C14" t="s">
+    <row r="15" spans="1:5">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
+    <row r="17" spans="1:5">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
+    <row r="18" spans="1:5">
+      <c r="D18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="C19" t="s">
+    <row r="20" spans="1:5">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="C20" t="s">
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="C21" t="s">
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="C23" t="s">
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="C25" t="s">
+    <row r="26" spans="1:5">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="C28" t="s">
+    <row r="29" spans="1:5">
+      <c r="D29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="C30" t="s">
+    <row r="31" spans="1:5">
+      <c r="D31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="C31" t="s">
+    <row r="32" spans="1:5">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="C32" t="s">
+    <row r="33" spans="1:5">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="C34" t="s">
+    <row r="35" spans="1:5">
+      <c r="D35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="C35" t="s">
+    <row r="36" spans="1:5">
+      <c r="D36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="C36" t="s">
+    <row r="37" spans="1:5">
+      <c r="D37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="C38" t="s">
+    <row r="39" spans="1:5">
+      <c r="D39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="C39" t="s">
+    <row r="40" spans="1:5">
+      <c r="D40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="C41" t="s">
+    <row r="42" spans="1:5">
+      <c r="D42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="C42" t="s">
+    <row r="43" spans="1:5">
+      <c r="D43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="C43" t="s">
+    <row r="44" spans="1:5">
+      <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="C45" t="s">
+    <row r="46" spans="1:5">
+      <c r="D46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="C46" t="s">
+    <row r="47" spans="1:5">
+      <c r="D47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="C47" t="s">
+    <row r="48" spans="1:5">
+      <c r="D48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="C49" t="s">
+    <row r="50" spans="1:5">
+      <c r="D50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="C50" t="s">
+    <row r="51" spans="1:5">
+      <c r="D51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="C51" t="s">
+    <row r="52" spans="1:5">
+      <c r="D52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>55</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="C53" t="s">
+    <row r="54" spans="1:5">
+      <c r="D54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>58</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="C55" t="s">
+    <row r="56" spans="1:5">
+      <c r="D56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="C56" t="s">
+    <row r="57" spans="1:5">
+      <c r="D57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
         <v>34</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="C58" t="s">
+    <row r="59" spans="1:5">
+      <c r="D59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="C59" t="s">
+    <row r="60" spans="1:5">
+      <c r="D60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="C60" t="s">
+    <row r="61" spans="1:5">
+      <c r="D61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>66</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E62" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="C62" t="s">
+    <row r="63" spans="1:5">
+      <c r="D63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="C63" t="s">
+    <row r="64" spans="1:5">
+      <c r="D64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="C64" t="s">
+    <row r="65" spans="1:4">
+      <c r="D65" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="C66" t="s">
+    <row r="67" spans="1:4">
+      <c r="D67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="C68" t="s">
+    <row r="69" spans="1:4">
+      <c r="D69" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="C69" t="s">
+    <row r="70" spans="1:4">
+      <c r="D70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="C70" t="s">
+    <row r="71" spans="1:4">
+      <c r="D71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="C72" t="s">
+    <row r="73" spans="1:4">
+      <c r="D73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="C73" t="s">
+    <row r="74" spans="1:4">
+      <c r="D74" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="C74" t="s">
+    <row r="75" spans="1:4">
+      <c r="D75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="C76" t="s">
+    <row r="77" spans="1:4">
+      <c r="D77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="C77" t="s">
+    <row r="78" spans="1:4">
+      <c r="D78" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="C78" t="s">
+    <row r="79" spans="1:4">
+      <c r="D79" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="C79" t="s">
+    <row r="80" spans="1:4">
+      <c r="D80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="C81" t="s">
+    <row r="82" spans="1:4">
+      <c r="D82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="C82" t="s">
+    <row r="83" spans="1:4">
+      <c r="D83" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="C84" t="s">
+    <row r="85" spans="1:4">
+      <c r="D85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="C85" t="s">
+    <row r="86" spans="1:4">
+      <c r="D86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="C86" t="s">
+    <row r="87" spans="1:4">
+      <c r="D87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="C88" t="s">
+    <row r="89" spans="1:4">
+      <c r="D89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="C89" t="s">
+    <row r="90" spans="1:4">
+      <c r="D90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="C90" t="s">
+    <row r="91" spans="1:4">
+      <c r="D91" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="C92" t="s">
+    <row r="93" spans="1:4">
+      <c r="D93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="C93" t="s">
+    <row r="94" spans="1:4">
+      <c r="D94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="C94" t="s">
+    <row r="95" spans="1:4">
+      <c r="D95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="C96" t="s">
+    <row r="97" spans="1:4">
+      <c r="D97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="C98" t="s">
+    <row r="99" spans="1:4">
+      <c r="D99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="C99" t="s">
+    <row r="100" spans="1:4">
+      <c r="D100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="C100" t="s">
+    <row r="101" spans="1:4">
+      <c r="D101" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="C102" t="s">
+    <row r="103" spans="1:4">
+      <c r="D103" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="C103" t="s">
+    <row r="104" spans="1:4">
+      <c r="D104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="C104" t="s">
+    <row r="105" spans="1:4">
+      <c r="D105" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
         <v>101</v>
       </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="C106" t="s">
+    <row r="107" spans="1:4">
+      <c r="D107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="C107" t="s">
+    <row r="108" spans="1:4">
+      <c r="D108" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="C108" t="s">
+    <row r="109" spans="1:4">
+      <c r="D109" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
         <v>102</v>
       </c>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="C110" t="s">
+    <row r="111" spans="1:4">
+      <c r="D111" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="C111" t="s">
+    <row r="112" spans="1:4">
+      <c r="D112" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
         <v>106</v>
       </c>
-      <c r="B112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="C113" t="s">
+    <row r="114" spans="1:4">
+      <c r="D114" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="C114" t="s">
+    <row r="115" spans="1:4">
+      <c r="D115" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
         <v>108</v>
       </c>
-      <c r="B115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="C116" t="s">
+    <row r="117" spans="1:4">
+      <c r="D117" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="C117" t="s">
+    <row r="118" spans="1:4">
+      <c r="D118" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="C118" t="s">
+    <row r="119" spans="1:4">
+      <c r="D119" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
         <v>110</v>
       </c>
-      <c r="B119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="C120" t="s">
+    <row r="121" spans="1:4">
+      <c r="D121" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="C121" t="s">
+    <row r="122" spans="1:4">
+      <c r="D122" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="C122" t="s">
+    <row r="123" spans="1:4">
+      <c r="D123" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
         <v>114</v>
       </c>
-      <c r="B123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="C124" t="s">
+    <row r="125" spans="1:4">
+      <c r="D125" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="C125" t="s">
+    <row r="126" spans="1:4">
+      <c r="D126" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>118</v>
       </c>
-      <c r="B126" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="C127" t="s">
+    <row r="128" spans="1:4">
+      <c r="D128" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="C128" t="s">
+    <row r="129" spans="1:4">
+      <c r="D129" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="C129" t="s">
+    <row r="130" spans="1:4">
+      <c r="D130" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>119</v>
       </c>
-      <c r="B130" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="C131" t="s">
+    <row r="132" spans="1:4">
+      <c r="D132" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="C132" t="s">
+    <row r="133" spans="1:4">
+      <c r="D133" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="C133" t="s">
+    <row r="134" spans="1:4">
+      <c r="D134" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>120</v>
       </c>
-      <c r="B134" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="C135" t="s">
+    <row r="136" spans="1:4">
+      <c r="D136" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="C136" t="s">
+    <row r="137" spans="1:4">
+      <c r="D137" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="C137" t="s">
+    <row r="138" spans="1:4">
+      <c r="D138" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
         <v>122</v>
       </c>
-      <c r="B138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="C139" t="s">
+    <row r="140" spans="1:4">
+      <c r="D140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="C140" t="s">
+    <row r="141" spans="1:4">
+      <c r="D141" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
         <v>124</v>
       </c>
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="C142" t="s">
+    <row r="143" spans="1:4">
+      <c r="D143" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="C143" t="s">
+    <row r="144" spans="1:4">
+      <c r="D144" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="C144" t="s">
+    <row r="145" spans="1:5">
+      <c r="D145" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
         <v>125</v>
       </c>
-      <c r="B145" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="C146" t="s">
+    <row r="147" spans="1:5">
+      <c r="D147" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="C147" t="s">
+    <row r="148" spans="1:5">
+      <c r="D148" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="C148" t="s">
+    <row r="149" spans="1:5">
+      <c r="D149" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
         <v>128</v>
       </c>
-      <c r="B149" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="C150" t="s">
+    <row r="151" spans="1:5">
+      <c r="D151" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="C151" t="s">
+    <row r="152" spans="1:5">
+      <c r="D152" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="C152" t="s">
+    <row r="153" spans="1:5">
+      <c r="D153" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
         <v>132</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C154" t="s">
         <v>133</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D154" t="s">
         <v>69</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E154" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="C154" t="s">
+    <row r="155" spans="1:5">
+      <c r="D155" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
         <v>135</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C156" t="s">
         <v>133</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D156" t="s">
         <v>72</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="C156" t="s">
+    <row r="157" spans="1:5">
+      <c r="D157" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="C157" t="s">
+    <row r="158" spans="1:5">
+      <c r="D158" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
         <v>137</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C159" t="s">
         <v>133</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D159" t="s">
         <v>138</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E159" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="C159" t="s">
+    <row r="160" spans="1:5">
+      <c r="D160" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="C160" t="s">
+    <row r="161" spans="1:5">
+      <c r="D161" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="C161" t="s">
+    <row r="162" spans="1:5">
+      <c r="D162" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
         <v>140</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C163" t="s">
         <v>133</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D163" t="s">
         <v>141</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E163" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="C163" t="s">
+    <row r="164" spans="1:5">
+      <c r="D164" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="C164" t="s">
+    <row r="165" spans="1:5">
+      <c r="D165" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="C165" t="s">
+    <row r="166" spans="1:5">
+      <c r="D166" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
         <v>142</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C167" t="s">
         <v>133</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D167" t="s">
         <v>69</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E167" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="C167" t="s">
+    <row r="168" spans="1:5">
+      <c r="D168" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
         <v>143</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C169" t="s">
         <v>133</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D169" t="s">
         <v>69</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E169" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="C169" t="s">
+    <row r="170" spans="1:5">
+      <c r="D170" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="C170" t="s">
+    <row r="171" spans="1:5">
+      <c r="D171" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
         <v>144</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C172" t="s">
         <v>133</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D172" t="s">
         <v>145</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E172" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="C172" t="s">
+    <row r="173" spans="1:5">
+      <c r="D173" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="C173" t="s">
+    <row r="174" spans="1:5">
+      <c r="D174" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="C174" t="s">
+    <row r="175" spans="1:5">
+      <c r="D175" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
         <v>147</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C176" t="s">
         <v>133</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D176" t="s">
         <v>141</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E176" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="C176" t="s">
+    <row r="177" spans="1:5">
+      <c r="D177" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="C177" t="s">
+    <row r="178" spans="1:5">
+      <c r="D178" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="C178" t="s">
+    <row r="179" spans="1:5">
+      <c r="D179" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
         <v>150</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C180" t="s">
         <v>133</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D180" t="s">
         <v>69</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E180" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="C180" t="s">
+    <row r="181" spans="1:5">
+      <c r="D181" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
         <v>151</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C182" t="s">
         <v>133</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D182" t="s">
         <v>72</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E182" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="C182" t="s">
+    <row r="183" spans="1:5">
+      <c r="D183" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
         <v>153</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C184" t="s">
         <v>133</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D184" t="s">
         <v>154</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E184" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="C184" t="s">
+    <row r="185" spans="1:5">
+      <c r="D185" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="C185" t="s">
+    <row r="186" spans="1:5">
+      <c r="D186" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="C186" t="s">
+    <row r="187" spans="1:5">
+      <c r="D187" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
         <v>155</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C188" t="s">
         <v>133</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D188" t="s">
         <v>141</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E188" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="C188" t="s">
+    <row r="189" spans="1:5">
+      <c r="D189" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="C189" t="s">
+    <row r="190" spans="1:5">
+      <c r="D190" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="C190" t="s">
+    <row r="191" spans="1:5">
+      <c r="D191" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
         <v>158</v>
       </c>
-      <c r="B191" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="C192" t="s">
+    <row r="193" spans="1:4">
+      <c r="D193" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="C193" t="s">
+    <row r="194" spans="1:4">
+      <c r="D194" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
         <v>159</v>
       </c>
-      <c r="B194" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="C195" t="s">
+    <row r="196" spans="1:4">
+      <c r="D196" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="C196" t="s">
+    <row r="197" spans="1:4">
+      <c r="D197" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="C197" t="s">
+    <row r="198" spans="1:4">
+      <c r="D198" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
         <v>160</v>
       </c>
-      <c r="B198" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="C199" t="s">
+    <row r="200" spans="1:4">
+      <c r="D200" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="C200" t="s">
+    <row r="201" spans="1:4">
+      <c r="D201" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="C201" t="s">
+    <row r="202" spans="1:4">
+      <c r="D202" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
         <v>163</v>
       </c>
-      <c r="B202" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="C203" t="s">
+    <row r="204" spans="1:4">
+      <c r="D204" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="C204" t="s">
+    <row r="205" spans="1:4">
+      <c r="D205" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="C205" t="s">
+    <row r="206" spans="1:4">
+      <c r="D206" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
         <v>165</v>
       </c>
-      <c r="B206" t="s">
-        <v>1</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="C207" t="s">
+    <row r="208" spans="1:4">
+      <c r="D208" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
         <v>167</v>
       </c>
-      <c r="B208" t="s">
-        <v>1</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="C209" t="s">
+    <row r="210" spans="1:4">
+      <c r="D210" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="C210" t="s">
+    <row r="211" spans="1:4">
+      <c r="D211" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="C211" t="s">
+    <row r="212" spans="1:4">
+      <c r="D212" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
         <v>169</v>
       </c>
-      <c r="B212" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="C213" t="s">
+    <row r="214" spans="1:4">
+      <c r="D214" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="C214" t="s">
+    <row r="215" spans="1:4">
+      <c r="D215" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="C215" t="s">
+    <row r="216" spans="1:4">
+      <c r="D216" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
         <v>172</v>
       </c>
-      <c r="B216" t="s">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="C217" t="s">
+    <row r="218" spans="1:4">
+      <c r="D218" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="C218" t="s">
+    <row r="219" spans="1:4">
+      <c r="D219" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="C219" t="s">
+    <row r="220" spans="1:4">
+      <c r="D220" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
         <v>174</v>
       </c>
-      <c r="B220" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="C221" t="s">
+    <row r="222" spans="1:4">
+      <c r="D222" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
         <v>176</v>
       </c>
-      <c r="B222" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222" t="s">
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="C223" t="s">
+    <row r="224" spans="1:4">
+      <c r="D224" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="C224" t="s">
+    <row r="225" spans="1:5">
+      <c r="D225" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="C225" t="s">
+    <row r="226" spans="1:5">
+      <c r="D226" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
         <v>179</v>
       </c>
-      <c r="B226" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="C227" t="s">
+    <row r="228" spans="1:5">
+      <c r="D228" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="C228" t="s">
+    <row r="229" spans="1:5">
+      <c r="D229" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="C229" t="s">
+    <row r="230" spans="1:5">
+      <c r="D230" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
         <v>181</v>
       </c>
-      <c r="B230" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
+      <c r="C231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="C231" t="s">
+    <row r="232" spans="1:5">
+      <c r="D232" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="C232" t="s">
+    <row r="233" spans="1:5">
+      <c r="D233" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="C233" t="s">
+    <row r="234" spans="1:5">
+      <c r="D234" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
         <v>184</v>
       </c>
-      <c r="B234" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
         <v>185</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E235" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
         <v>186</v>
       </c>
-      <c r="B235" t="s">
-        <v>1</v>
-      </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
         <v>185</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E236" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="C236" t="s">
+    <row r="237" spans="1:5">
+      <c r="D237" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
         <v>188</v>
       </c>
-      <c r="B237" t="s">
-        <v>1</v>
-      </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
         <v>189</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E238" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="C238" t="s">
+    <row r="239" spans="1:5">
+      <c r="D239" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="C239" t="s">
+    <row r="240" spans="1:5">
+      <c r="D240" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="C240" t="s">
+    <row r="241" spans="1:5">
+      <c r="D241" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
         <v>190</v>
       </c>
-      <c r="B241" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="C242" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
         <v>116</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E242" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="C242" t="s">
+    <row r="243" spans="1:5">
+      <c r="D243" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="C243" t="s">
+    <row r="244" spans="1:5">
+      <c r="D244" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="C244" t="s">
+    <row r="245" spans="1:5">
+      <c r="D245" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
         <v>192</v>
       </c>
-      <c r="B245" t="s">
-        <v>1</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="C246" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
         <v>194</v>
       </c>
-      <c r="B246" t="s">
-        <v>1</v>
-      </c>
-      <c r="C246" t="s">
+      <c r="C247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="C247" t="s">
+    <row r="248" spans="1:5">
+      <c r="D248" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="C248" t="s">
+    <row r="249" spans="1:5">
+      <c r="D249" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
         <v>196</v>
       </c>
-      <c r="B249" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
+      <c r="C250" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="C250" t="s">
+    <row r="251" spans="1:5">
+      <c r="D251" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="C251" t="s">
+    <row r="252" spans="1:5">
+      <c r="D252" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="C252" t="s">
+    <row r="253" spans="1:5">
+      <c r="D253" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
         <v>200</v>
       </c>
-      <c r="B253" t="s">
-        <v>1</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="C254" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="C254" t="s">
+    <row r="255" spans="1:5">
+      <c r="D255" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="C255" t="s">
+    <row r="256" spans="1:5">
+      <c r="D256" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="C256" t="s">
+    <row r="257" spans="1:4">
+      <c r="D257" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="s">
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
         <v>202</v>
       </c>
-      <c r="B257" t="s">
-        <v>1</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="C258" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
-      <c r="C258" t="s">
+    <row r="259" spans="1:4">
+      <c r="D259" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
-      <c r="C259" t="s">
+    <row r="260" spans="1:4">
+      <c r="D260" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="C260" t="s">
+    <row r="261" spans="1:4">
+      <c r="D261" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261" t="s">
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
         <v>206</v>
       </c>
-      <c r="B261" t="s">
-        <v>1</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="C262" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
-      <c r="C262" t="s">
+    <row r="263" spans="1:4">
+      <c r="D263" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="C263" t="s">
+    <row r="264" spans="1:4">
+      <c r="D264" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
-      <c r="C264" t="s">
+    <row r="265" spans="1:4">
+      <c r="D265" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
-      <c r="C265" t="s">
+    <row r="266" spans="1:4">
+      <c r="D266" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="s">
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
         <v>208</v>
       </c>
-      <c r="B266" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
-      <c r="C267" t="s">
+    <row r="268" spans="1:4">
+      <c r="D268" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="C268" t="s">
+    <row r="269" spans="1:4">
+      <c r="D269" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
-      <c r="C269" t="s">
+    <row r="270" spans="1:4">
+      <c r="D270" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
-      <c r="C270" t="s">
+    <row r="271" spans="1:4">
+      <c r="D271" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="s">
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
         <v>209</v>
       </c>
-      <c r="B271" t="s">
-        <v>1</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="C272" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="C272" t="s">
+    <row r="273" spans="1:4">
+      <c r="D273" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
-      <c r="C273" t="s">
+    <row r="274" spans="1:4">
+      <c r="D274" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
-      <c r="C274" t="s">
+    <row r="275" spans="1:4">
+      <c r="D275" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
-      <c r="A275" t="s">
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
         <v>211</v>
       </c>
-      <c r="B275" t="s">
-        <v>1</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="C276" t="s">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
-      <c r="C276" t="s">
+    <row r="277" spans="1:4">
+      <c r="D277" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
-      <c r="C277" t="s">
+    <row r="278" spans="1:4">
+      <c r="D278" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
-      <c r="C278" t="s">
+    <row r="279" spans="1:4">
+      <c r="D279" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
-      <c r="A279" t="s">
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
         <v>215</v>
       </c>
-      <c r="B279" t="s">
-        <v>1</v>
-      </c>
-      <c r="C279" t="s">
+      <c r="C280" t="s">
+        <v>1</v>
+      </c>
+      <c r="D280" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
-      <c r="C280" t="s">
+    <row r="281" spans="1:4">
+      <c r="D281" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
-      <c r="C281" t="s">
+    <row r="282" spans="1:4">
+      <c r="D282" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
-      <c r="C282" t="s">
+    <row r="283" spans="1:4">
+      <c r="D283" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
-      <c r="C283" t="s">
+    <row r="284" spans="1:4">
+      <c r="D284" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
-      <c r="A284" t="s">
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
         <v>217</v>
       </c>
-      <c r="B284" t="s">
-        <v>1</v>
-      </c>
-      <c r="C284" t="s">
+      <c r="C285" t="s">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
-      <c r="C285" t="s">
+    <row r="286" spans="1:4">
+      <c r="D286" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
-      <c r="C286" t="s">
+    <row r="287" spans="1:4">
+      <c r="D287" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
-      <c r="C287" t="s">
+    <row r="288" spans="1:4">
+      <c r="D288" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="C288" t="s">
+    <row r="289" spans="1:4">
+      <c r="D289" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
-      <c r="A289" t="s">
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
         <v>218</v>
       </c>
-      <c r="B289" t="s">
-        <v>1</v>
-      </c>
-      <c r="C289" t="s">
+      <c r="C290" t="s">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
-      <c r="C290" t="s">
+    <row r="291" spans="1:4">
+      <c r="D291" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
-      <c r="C291" t="s">
+    <row r="292" spans="1:4">
+      <c r="D292" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
-      <c r="C292" t="s">
+    <row r="293" spans="1:4">
+      <c r="D293" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
-      <c r="C293" t="s">
+    <row r="294" spans="1:4">
+      <c r="D294" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
-      <c r="A294" t="s">
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
         <v>221</v>
       </c>
-      <c r="B294" t="s">
-        <v>1</v>
-      </c>
-      <c r="C294" t="s">
+      <c r="C295" t="s">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
-      <c r="C295" t="s">
+    <row r="296" spans="1:4">
+      <c r="D296" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
-      <c r="C296" t="s">
+    <row r="297" spans="1:4">
+      <c r="D297" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
-      <c r="C297" t="s">
+    <row r="298" spans="1:4">
+      <c r="D298" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
-      <c r="C298" t="s">
+    <row r="299" spans="1:4">
+      <c r="D299" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
-      <c r="A299" t="s">
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
         <v>224</v>
       </c>
-      <c r="B299" t="s">
-        <v>1</v>
-      </c>
-      <c r="C299" t="s">
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="C300" t="s">
+    <row r="301" spans="1:4">
+      <c r="D301" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
-      <c r="C301" t="s">
+    <row r="302" spans="1:4">
+      <c r="D302" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302" t="s">
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
         <v>227</v>
       </c>
-      <c r="B302" t="s">
-        <v>1</v>
-      </c>
-      <c r="C302" t="s">
+      <c r="C303" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
-      <c r="C303" t="s">
+    <row r="304" spans="1:4">
+      <c r="D304" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="C304" t="s">
+    <row r="305" spans="1:4">
+      <c r="D305" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="C305" t="s">
+    <row r="306" spans="1:4">
+      <c r="D306" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="C306" t="s">
+    <row r="307" spans="1:4">
+      <c r="D307" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" t="s">
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
         <v>230</v>
       </c>
-      <c r="B307" t="s">
-        <v>1</v>
-      </c>
-      <c r="C307" t="s">
+      <c r="C308" t="s">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="C308" t="s">
+    <row r="309" spans="1:4">
+      <c r="D309" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
-      <c r="C309" t="s">
+    <row r="310" spans="1:4">
+      <c r="D310" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
-      <c r="C310" t="s">
+    <row r="311" spans="1:4">
+      <c r="D311" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
-      <c r="C311" t="s">
+    <row r="312" spans="1:4">
+      <c r="D312" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
-      <c r="A312" t="s">
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
         <v>233</v>
       </c>
-      <c r="B312" t="s">
-        <v>1</v>
-      </c>
-      <c r="C312" t="s">
+      <c r="C313" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
-      <c r="C313" t="s">
+    <row r="314" spans="1:4">
+      <c r="D314" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
-      <c r="C314" t="s">
+    <row r="315" spans="1:4">
+      <c r="D315" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
-      <c r="C315" t="s">
+    <row r="316" spans="1:4">
+      <c r="D316" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
-      <c r="C316" t="s">
+    <row r="317" spans="1:4">
+      <c r="D317" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
-      <c r="A317" t="s">
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
         <v>236</v>
       </c>
-      <c r="B317" t="s">
-        <v>1</v>
-      </c>
-      <c r="C317" t="s">
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
-      <c r="C318" t="s">
+    <row r="319" spans="1:4">
+      <c r="D319" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
-      <c r="C319" t="s">
+    <row r="320" spans="1:4">
+      <c r="D320" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
-      <c r="C320" t="s">
+    <row r="321" spans="1:4">
+      <c r="D321" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
-      <c r="C321" t="s">
+    <row r="322" spans="1:4">
+      <c r="D322" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
-      <c r="A322" t="s">
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
         <v>238</v>
       </c>
-      <c r="B322" t="s">
-        <v>1</v>
-      </c>
-      <c r="C322" t="s">
+      <c r="C323" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
-      <c r="C323" t="s">
+    <row r="324" spans="1:4">
+      <c r="D324" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="C324" t="s">
+    <row r="325" spans="1:4">
+      <c r="D325" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
-      <c r="A325" t="s">
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
         <v>240</v>
       </c>
-      <c r="B325" t="s">
-        <v>1</v>
-      </c>
-      <c r="C325" t="s">
+      <c r="C326" t="s">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
-      <c r="C326" t="s">
+    <row r="327" spans="1:4">
+      <c r="D327" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
-      <c r="C328" t="s">
+    <row r="329" spans="1:4">
+      <c r="D329" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
-      <c r="C329" t="s">
+    <row r="330" spans="1:4">
+      <c r="D330" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="A330" t="s">
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
         <v>241</v>
       </c>
-      <c r="B330" t="s">
-        <v>1</v>
-      </c>
-      <c r="C330" t="s">
+      <c r="C331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="C331" t="s">
+    <row r="332" spans="1:4">
+      <c r="D332" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="C332" t="s">
+    <row r="333" spans="1:4">
+      <c r="D333" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
-      <c r="C333" t="s">
+    <row r="334" spans="1:4">
+      <c r="D334" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
-      <c r="C334" t="s">
+    <row r="335" spans="1:4">
+      <c r="D335" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
-      <c r="A335" t="s">
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
         <v>245</v>
       </c>
-      <c r="B335" t="s">
-        <v>1</v>
-      </c>
-      <c r="C335" t="s">
+      <c r="C336" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
-      <c r="C336" t="s">
+    <row r="337" spans="1:4">
+      <c r="D337" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
-      <c r="C337" t="s">
+    <row r="338" spans="1:4">
+      <c r="D338" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
-      <c r="C338" t="s">
+    <row r="339" spans="1:4">
+      <c r="D339" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="C339" t="s">
+    <row r="340" spans="1:4">
+      <c r="D340" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
-      <c r="A340" t="s">
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
         <v>248</v>
       </c>
-      <c r="B340" t="s">
-        <v>1</v>
-      </c>
-      <c r="C340" t="s">
+      <c r="C341" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
-      <c r="C341" t="s">
+    <row r="342" spans="1:4">
+      <c r="D342" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="C342" t="s">
+    <row r="343" spans="1:4">
+      <c r="D343" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="C344" t="s">
+    <row r="345" spans="1:4">
+      <c r="D345" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="C345" t="s">
+    <row r="346" spans="1:4">
+      <c r="D346" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
-      <c r="A346" t="s">
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
         <v>251</v>
       </c>
-      <c r="B346" t="s">
-        <v>1</v>
-      </c>
-      <c r="C346" t="s">
+      <c r="C347" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="C347" t="s">
+    <row r="348" spans="1:4">
+      <c r="D348" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
-      <c r="C348" t="s">
+    <row r="349" spans="1:4">
+      <c r="D349" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
-      <c r="A349" t="s">
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
         <v>254</v>
       </c>
-      <c r="B349" t="s">
-        <v>1</v>
-      </c>
-      <c r="C349" t="s">
+      <c r="C350" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
-      <c r="C350" t="s">
+    <row r="351" spans="1:4">
+      <c r="D351" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
-      <c r="C351" t="s">
+    <row r="352" spans="1:4">
+      <c r="D352" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
-      <c r="C352" t="s">
+    <row r="353" spans="1:4">
+      <c r="D353" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
-      <c r="A353" t="s">
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
         <v>255</v>
       </c>
-      <c r="B353" t="s">
-        <v>1</v>
-      </c>
-      <c r="C353" t="s">
+      <c r="C354" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
-      <c r="C354" t="s">
+    <row r="355" spans="1:4">
+      <c r="D355" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
-      <c r="C355" t="s">
+    <row r="356" spans="1:4">
+      <c r="D356" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
-      <c r="C356" t="s">
+    <row r="357" spans="1:4">
+      <c r="D357" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="A357" t="s">
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
         <v>256</v>
       </c>
-      <c r="B357" t="s">
-        <v>1</v>
-      </c>
-      <c r="C357" t="s">
+      <c r="C358" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
-      <c r="C358" t="s">
+    <row r="359" spans="1:4">
+      <c r="D359" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
-      <c r="C359" t="s">
+    <row r="360" spans="1:4">
+      <c r="D360" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
-      <c r="C360" t="s">
+    <row r="361" spans="1:4">
+      <c r="D361" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
-      <c r="A361" t="s">
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
         <v>257</v>
       </c>
-      <c r="B361" t="s">
-        <v>1</v>
-      </c>
-      <c r="C361" t="s">
+      <c r="C362" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="C362" t="s">
+    <row r="363" spans="1:4">
+      <c r="D363" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
-      <c r="C363" t="s">
+    <row r="364" spans="1:4">
+      <c r="D364" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
-      <c r="C364" t="s">
+    <row r="365" spans="1:4">
+      <c r="D365" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
-      <c r="A365" t="s">
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
         <v>258</v>
       </c>
-      <c r="B365" t="s">
-        <v>1</v>
-      </c>
-      <c r="C365" t="s">
+      <c r="C366" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
-      <c r="C366" t="s">
+    <row r="367" spans="1:4">
+      <c r="D367" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
-      <c r="C367" t="s">
+    <row r="368" spans="1:4">
+      <c r="D368" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
-      <c r="A368" t="s">
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
         <v>260</v>
       </c>
-      <c r="B368" t="s">
-        <v>1</v>
-      </c>
-      <c r="C368" t="s">
+      <c r="C369" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
-      <c r="C369" t="s">
+    <row r="370" spans="1:4">
+      <c r="D370" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
-      <c r="C370" t="s">
+    <row r="371" spans="1:4">
+      <c r="D371" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
-      <c r="C371" t="s">
+    <row r="372" spans="1:4">
+      <c r="D372" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
-      <c r="A372" t="s">
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
         <v>262</v>
       </c>
-      <c r="B372" t="s">
-        <v>1</v>
-      </c>
-      <c r="C372" t="s">
+      <c r="C373" t="s">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
-      <c r="C373" t="s">
+    <row r="374" spans="1:4">
+      <c r="D374" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
-      <c r="C374" t="s">
+    <row r="375" spans="1:4">
+      <c r="D375" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
-      <c r="C375" t="s">
+    <row r="376" spans="1:4">
+      <c r="D376" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
-      <c r="A376" t="s">
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
         <v>263</v>
       </c>
-      <c r="B376" t="s">
-        <v>1</v>
-      </c>
-      <c r="C376" t="s">
+      <c r="C377" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
-      <c r="C377" t="s">
+    <row r="378" spans="1:4">
+      <c r="D378" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
-      <c r="C378" t="s">
+    <row r="379" spans="1:4">
+      <c r="D379" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
-      <c r="C379" t="s">
+    <row r="380" spans="1:4">
+      <c r="D380" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
-      <c r="A380" t="s">
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
         <v>264</v>
       </c>
-      <c r="B380" t="s">
-        <v>1</v>
-      </c>
-      <c r="C380" t="s">
+      <c r="C381" t="s">
+        <v>1</v>
+      </c>
+      <c r="D381" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
-      <c r="C381" t="s">
+    <row r="382" spans="1:4">
+      <c r="D382" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
-      <c r="C382" t="s">
+    <row r="383" spans="1:4">
+      <c r="D383" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
-      <c r="C383" t="s">
+    <row r="384" spans="1:4">
+      <c r="D384" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
-      <c r="C384" t="s">
+    <row r="385" spans="1:4">
+      <c r="D385" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
-      <c r="A385" t="s">
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
         <v>265</v>
       </c>
-      <c r="B385" t="s">
-        <v>1</v>
-      </c>
-      <c r="C385" t="s">
+      <c r="C386" t="s">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
-      <c r="C386" t="s">
+    <row r="387" spans="1:4">
+      <c r="D387" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
-      <c r="C387" t="s">
+    <row r="388" spans="1:4">
+      <c r="D388" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
-      <c r="A388" t="s">
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
         <v>268</v>
       </c>
-      <c r="B388" t="s">
-        <v>1</v>
-      </c>
-      <c r="C388" t="s">
+      <c r="C389" t="s">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
-      <c r="C389" t="s">
+    <row r="390" spans="1:4">
+      <c r="D390" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
-      <c r="C390" t="s">
+    <row r="391" spans="1:4">
+      <c r="D391" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
-      <c r="C391" t="s">
+    <row r="392" spans="1:4">
+      <c r="D392" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
-      <c r="A392" t="s">
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
         <v>269</v>
       </c>
-      <c r="B392" t="s">
-        <v>1</v>
-      </c>
-      <c r="C392" t="s">
+      <c r="C393" t="s">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
-      <c r="C393" t="s">
+    <row r="394" spans="1:4">
+      <c r="D394" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
-      <c r="C394" t="s">
+    <row r="395" spans="1:4">
+      <c r="D395" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
-      <c r="C395" t="s">
+    <row r="396" spans="1:4">
+      <c r="D396" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
-      <c r="A396" t="s">
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
         <v>270</v>
       </c>
-      <c r="B396" t="s">
-        <v>1</v>
-      </c>
-      <c r="C396" t="s">
+      <c r="C397" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
-      <c r="C397" t="s">
+    <row r="398" spans="1:4">
+      <c r="D398" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
-      <c r="C398" t="s">
+    <row r="399" spans="1:4">
+      <c r="D399" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
-      <c r="C399" t="s">
+    <row r="400" spans="1:4">
+      <c r="D400" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
-      <c r="A400" t="s">
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
         <v>272</v>
       </c>
-      <c r="B400" t="s">
-        <v>1</v>
-      </c>
-      <c r="C400" t="s">
+      <c r="C401" t="s">
+        <v>1</v>
+      </c>
+      <c r="D401" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
-      <c r="C401" t="s">
+    <row r="402" spans="1:4">
+      <c r="D402" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="C402" t="s">
+    <row r="403" spans="1:4">
+      <c r="D403" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
-      <c r="A403" t="s">
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
         <v>273</v>
       </c>
-      <c r="B403" t="s">
-        <v>1</v>
-      </c>
-      <c r="C403" t="s">
+      <c r="C404" t="s">
+        <v>1</v>
+      </c>
+      <c r="D404" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
-      <c r="C404" t="s">
+    <row r="405" spans="1:4">
+      <c r="D405" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
-      <c r="C405" t="s">
+    <row r="406" spans="1:4">
+      <c r="D406" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
-      <c r="A406" t="s">
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
         <v>275</v>
       </c>
-      <c r="B406" t="s">
-        <v>1</v>
-      </c>
-      <c r="C406" t="s">
+      <c r="C407" t="s">
+        <v>1</v>
+      </c>
+      <c r="D407" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
-      <c r="C407" t="s">
+    <row r="408" spans="1:4">
+      <c r="D408" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
-      <c r="C408" t="s">
+    <row r="409" spans="1:4">
+      <c r="D409" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
-      <c r="A409" t="s">
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
         <v>276</v>
       </c>
-      <c r="B409" t="s">
-        <v>1</v>
-      </c>
-      <c r="C409" t="s">
+      <c r="C410" t="s">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
-      <c r="C410" t="s">
+    <row r="411" spans="1:4">
+      <c r="D411" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
-      <c r="C411" t="s">
+    <row r="412" spans="1:4">
+      <c r="D412" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
-      <c r="A412" t="s">
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
         <v>277</v>
       </c>
-      <c r="B412" t="s">
-        <v>1</v>
-      </c>
-      <c r="C412" t="s">
+      <c r="C413" t="s">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
-      <c r="C413" t="s">
+    <row r="414" spans="1:4">
+      <c r="D414" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
-      <c r="C414" t="s">
+    <row r="415" spans="1:4">
+      <c r="D415" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
-      <c r="C415" t="s">
+    <row r="416" spans="1:4">
+      <c r="D416" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
-      <c r="C416" t="s">
+    <row r="417" spans="1:4">
+      <c r="D417" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
-      <c r="A417" t="s">
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
         <v>280</v>
       </c>
-      <c r="B417" t="s">
-        <v>1</v>
-      </c>
-      <c r="C417" t="s">
+      <c r="C418" t="s">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
-      <c r="C418" t="s">
+    <row r="419" spans="1:4">
+      <c r="D419" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
-      <c r="C419" t="s">
+    <row r="420" spans="1:4">
+      <c r="D420" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
-      <c r="C420" t="s">
+    <row r="421" spans="1:4">
+      <c r="D421" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
-      <c r="C421" t="s">
+    <row r="422" spans="1:4">
+      <c r="D422" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
-      <c r="A422" t="s">
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
         <v>282</v>
       </c>
-      <c r="B422" t="s">
-        <v>1</v>
-      </c>
-      <c r="C422" t="s">
+      <c r="C423" t="s">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
-      <c r="C423" t="s">
+    <row r="424" spans="1:4">
+      <c r="D424" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
-      <c r="C424" t="s">
+    <row r="425" spans="1:4">
+      <c r="D425" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
-      <c r="A425" t="s">
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
         <v>284</v>
       </c>
-      <c r="B425" t="s">
-        <v>1</v>
-      </c>
-      <c r="C425" t="s">
+      <c r="C426" t="s">
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
-      <c r="C426" t="s">
+    <row r="427" spans="1:4">
+      <c r="D427" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
-      <c r="C427" t="s">
+    <row r="428" spans="1:4">
+      <c r="D428" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
-      <c r="C428" t="s">
+    <row r="429" spans="1:4">
+      <c r="D429" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
-      <c r="A429" t="s">
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
         <v>285</v>
       </c>
-      <c r="B429" t="s">
-        <v>1</v>
-      </c>
-      <c r="C429" t="s">
+      <c r="C430" t="s">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
-      <c r="C430" t="s">
+    <row r="431" spans="1:4">
+      <c r="D431" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
-      <c r="C431" t="s">
+    <row r="432" spans="1:4">
+      <c r="D432" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
-      <c r="C432" t="s">
+    <row r="433" spans="1:5">
+      <c r="D433" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" t="s">
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
         <v>286</v>
       </c>
-      <c r="B433" t="s">
-        <v>1</v>
-      </c>
-      <c r="C433" t="s">
+      <c r="C434" t="s">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="C434" t="s">
+    <row r="435" spans="1:5">
+      <c r="D435" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="C435" t="s">
+    <row r="436" spans="1:5">
+      <c r="D436" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="C436" t="s">
+    <row r="437" spans="1:5">
+      <c r="D437" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" t="s">
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
         <v>288</v>
       </c>
-      <c r="B437" t="s">
-        <v>1</v>
-      </c>
-      <c r="C437" t="s">
+      <c r="C438" t="s">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="C438" t="s">
+    <row r="439" spans="1:5">
+      <c r="D439" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="C439" t="s">
+    <row r="440" spans="1:5">
+      <c r="D440" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="C440" t="s">
+    <row r="441" spans="1:5">
+      <c r="D441" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" t="s">
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
         <v>289</v>
       </c>
-      <c r="B441" t="s">
+      <c r="C442" t="s">
         <v>133</v>
       </c>
-      <c r="C441" t="s">
+      <c r="D442" t="s">
         <v>290</v>
       </c>
-      <c r="D441" t="s">
+      <c r="E442" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="C442" t="s">
+    <row r="443" spans="1:5">
+      <c r="D443" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="C443" t="s">
+    <row r="444" spans="1:5">
+      <c r="D444" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="C444" t="s">
+    <row r="445" spans="1:5">
+      <c r="D445" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" t="s">
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
         <v>291</v>
       </c>
-      <c r="B445" t="s">
+      <c r="C446" t="s">
         <v>133</v>
       </c>
-      <c r="C445" t="s">
+      <c r="D446" t="s">
         <v>290</v>
       </c>
-      <c r="D445" t="s">
+      <c r="E446" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="C446" t="s">
+    <row r="447" spans="1:5">
+      <c r="D447" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="C447" t="s">
+    <row r="448" spans="1:5">
+      <c r="D448" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="C448" t="s">
+    <row r="449" spans="1:5">
+      <c r="D449" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="C449" t="s">
+    <row r="450" spans="1:5">
+      <c r="D450" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" t="s">
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
         <v>292</v>
       </c>
-      <c r="B450" t="s">
+      <c r="C451" t="s">
         <v>133</v>
       </c>
-      <c r="C450" t="s">
+      <c r="D451" t="s">
         <v>290</v>
       </c>
-      <c r="D450" t="s">
+      <c r="E451" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="C451" t="s">
+    <row r="452" spans="1:5">
+      <c r="D452" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="C452" t="s">
+    <row r="453" spans="1:5">
+      <c r="D453" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="C453" t="s">
+    <row r="454" spans="1:5">
+      <c r="D454" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="C454" t="s">
+    <row r="455" spans="1:5">
+      <c r="D455" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" t="s">
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
         <v>293</v>
       </c>
-      <c r="B455" t="s">
+      <c r="C456" t="s">
         <v>133</v>
       </c>
-      <c r="C455" t="s">
+      <c r="D456" t="s">
         <v>290</v>
       </c>
-      <c r="D455" t="s">
+      <c r="E456" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="C456" t="s">
+    <row r="457" spans="1:5">
+      <c r="D457" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="C457" t="s">
+    <row r="458" spans="1:5">
+      <c r="D458" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="C458" t="s">
+    <row r="459" spans="1:5">
+      <c r="D459" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="C459" t="s">
+    <row r="460" spans="1:5">
+      <c r="D460" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" t="s">
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
         <v>294</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C461" t="s">
         <v>133</v>
       </c>
-      <c r="C460" t="s">
+      <c r="D461" t="s">
         <v>290</v>
       </c>
-      <c r="D460" t="s">
+      <c r="E461" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="C461" t="s">
+    <row r="462" spans="1:5">
+      <c r="D462" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="C462" t="s">
+    <row r="463" spans="1:5">
+      <c r="D463" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="C463" t="s">
+    <row r="464" spans="1:5">
+      <c r="D464" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="C464" t="s">
+    <row r="465" spans="1:5">
+      <c r="D465" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" t="s">
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
         <v>296</v>
       </c>
-      <c r="B465" t="s">
+      <c r="C466" t="s">
         <v>133</v>
       </c>
-      <c r="C465" t="s">
+      <c r="D466" t="s">
         <v>297</v>
       </c>
-      <c r="D465" t="s">
+      <c r="E466" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="C466" t="s">
+    <row r="467" spans="1:5">
+      <c r="D467" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="C467" t="s">
+    <row r="468" spans="1:5">
+      <c r="D468" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="C468" t="s">
+    <row r="469" spans="1:5">
+      <c r="D469" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" t="s">
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
         <v>298</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C470" t="s">
         <v>133</v>
       </c>
-      <c r="C469" t="s">
+      <c r="D470" t="s">
         <v>297</v>
       </c>
-      <c r="D469" t="s">
+      <c r="E470" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
-      <c r="C470" t="s">
+    <row r="471" spans="1:5">
+      <c r="D471" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
-      <c r="C471" t="s">
+    <row r="472" spans="1:5">
+      <c r="D472" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="C472" t="s">
+    <row r="473" spans="1:5">
+      <c r="D473" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
-      <c r="A473" t="s">
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
         <v>299</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C474" t="s">
         <v>133</v>
       </c>
-      <c r="C473" t="s">
+      <c r="D474" t="s">
         <v>297</v>
       </c>
-      <c r="D473" t="s">
+      <c r="E474" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
-      <c r="C474" t="s">
+    <row r="475" spans="1:5">
+      <c r="D475" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
-      <c r="C475" t="s">
+    <row r="476" spans="1:5">
+      <c r="D476" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
-      <c r="C476" t="s">
+    <row r="477" spans="1:5">
+      <c r="D477" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
-      <c r="A477" t="s">
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
         <v>300</v>
       </c>
-      <c r="B477" t="s">
+      <c r="C478" t="s">
         <v>133</v>
       </c>
-      <c r="C477" t="s">
+      <c r="D478" t="s">
         <v>297</v>
       </c>
-      <c r="D477" t="s">
+      <c r="E478" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
-      <c r="C478" t="s">
+    <row r="479" spans="1:5">
+      <c r="D479" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="C479" t="s">
+    <row r="480" spans="1:5">
+      <c r="D480" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
-      <c r="C480" t="s">
+    <row r="481" spans="1:5">
+      <c r="D481" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
-      <c r="A481" t="s">
+    <row r="482" spans="1:5">
+      <c r="A482" t="s">
         <v>301</v>
       </c>
-      <c r="B481" t="s">
+      <c r="C482" t="s">
         <v>133</v>
       </c>
-      <c r="C481" t="s">
+      <c r="D482" t="s">
         <v>297</v>
       </c>
-      <c r="D481" t="s">
+      <c r="E482" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
-      <c r="C482" t="s">
+    <row r="483" spans="1:5">
+      <c r="D483" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
-      <c r="C483" t="s">
+    <row r="484" spans="1:5">
+      <c r="D484" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="C484" t="s">
+    <row r="485" spans="1:5">
+      <c r="D485" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
-      <c r="A485" t="s">
+    <row r="486" spans="1:5">
+      <c r="A486" t="s">
         <v>302</v>
       </c>
-      <c r="B485" t="s">
-        <v>1</v>
-      </c>
-      <c r="C485" t="s">
+      <c r="C486" t="s">
+        <v>1</v>
+      </c>
+      <c r="D486" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="C486" t="s">
+    <row r="487" spans="1:5">
+      <c r="D487" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
-      <c r="C487" t="s">
+    <row r="488" spans="1:5">
+      <c r="D488" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
-      <c r="A488" t="s">
+    <row r="489" spans="1:5">
+      <c r="A489" t="s">
         <v>304</v>
       </c>
-      <c r="B488" t="s">
-        <v>1</v>
-      </c>
-      <c r="C488" t="s">
+      <c r="C489" t="s">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
-      <c r="C489" t="s">
+    <row r="490" spans="1:5">
+      <c r="D490" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
-      <c r="C490" t="s">
+    <row r="491" spans="1:5">
+      <c r="D491" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
-      <c r="C491" t="s">
+    <row r="492" spans="1:5">
+      <c r="D492" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
-      <c r="A492" t="s">
+    <row r="493" spans="1:5">
+      <c r="A493" t="s">
         <v>306</v>
       </c>
-      <c r="B492" t="s">
-        <v>1</v>
-      </c>
-      <c r="C492" t="s">
+      <c r="C493" t="s">
+        <v>1</v>
+      </c>
+      <c r="D493" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
-      <c r="C493" t="s">
+    <row r="494" spans="1:5">
+      <c r="D494" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
-      <c r="C494" t="s">
+    <row r="495" spans="1:5">
+      <c r="D495" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="C495" t="s">
+    <row r="496" spans="1:5">
+      <c r="D496" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" t="s">
+    <row r="497" spans="1:4">
+      <c r="A497" t="s">
         <v>307</v>
       </c>
-      <c r="B496" t="s">
-        <v>1</v>
-      </c>
-      <c r="C496" t="s">
+      <c r="C497" t="s">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
-      <c r="C497" t="s">
+    <row r="498" spans="1:4">
+      <c r="D498" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
-      <c r="C498" t="s">
+    <row r="499" spans="1:4">
+      <c r="D499" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
-      <c r="C499" t="s">
+    <row r="500" spans="1:4">
+      <c r="D500" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
-      <c r="A500" t="s">
+    <row r="501" spans="1:4">
+      <c r="A501" t="s">
         <v>310</v>
       </c>
-      <c r="B500" t="s">
-        <v>1</v>
-      </c>
-      <c r="C500" t="s">
+      <c r="C501" t="s">
+        <v>1</v>
+      </c>
+      <c r="D501" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
-      <c r="C501" t="s">
+    <row r="502" spans="1:4">
+      <c r="D502" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
-      <c r="C502" t="s">
+    <row r="503" spans="1:4">
+      <c r="D503" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
-      <c r="C503" t="s">
+    <row r="504" spans="1:4">
+      <c r="D504" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
-      <c r="A504" t="s">
+    <row r="505" spans="1:4">
+      <c r="A505" t="s">
         <v>313</v>
       </c>
-      <c r="B504" t="s">
-        <v>1</v>
-      </c>
-      <c r="C504" t="s">
+      <c r="C505" t="s">
+        <v>1</v>
+      </c>
+      <c r="D505" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
-      <c r="C505" t="s">
+    <row r="506" spans="1:4">
+      <c r="D506" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
-      <c r="A506" t="s">
+    <row r="507" spans="1:4">
+      <c r="A507" t="s">
         <v>314</v>
       </c>
-      <c r="B506" t="s">
-        <v>1</v>
-      </c>
-      <c r="C506" t="s">
+      <c r="C507" t="s">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
-      <c r="C507" t="s">
+    <row r="508" spans="1:4">
+      <c r="D508" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
-      <c r="C508" t="s">
+    <row r="509" spans="1:4">
+      <c r="D509" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
-      <c r="C509" t="s">
+    <row r="510" spans="1:4">
+      <c r="D510" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
-      <c r="A510" t="s">
+    <row r="511" spans="1:4">
+      <c r="A511" t="s">
         <v>315</v>
       </c>
-      <c r="B510" t="s">
-        <v>1</v>
-      </c>
-      <c r="C510" t="s">
+      <c r="C511" t="s">
+        <v>1</v>
+      </c>
+      <c r="D511" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
-      <c r="C511" t="s">
+    <row r="512" spans="1:4">
+      <c r="D512" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
-      <c r="C512" t="s">
+    <row r="513" spans="1:5">
+      <c r="D513" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
-      <c r="C513" t="s">
+    <row r="514" spans="1:5">
+      <c r="D514" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
-      <c r="A514" t="s">
+    <row r="515" spans="1:5">
+      <c r="A515" t="s">
         <v>316</v>
       </c>
-      <c r="B514" t="s">
-        <v>1</v>
-      </c>
-      <c r="C514" t="s">
+      <c r="C515" t="s">
+        <v>1</v>
+      </c>
+      <c r="D515" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
-      <c r="C515" t="s">
+    <row r="516" spans="1:5">
+      <c r="D516" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
-      <c r="C516" t="s">
+    <row r="517" spans="1:5">
+      <c r="D517" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
-      <c r="C517" t="s">
+    <row r="518" spans="1:5">
+      <c r="D518" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
-      <c r="A518" t="s">
+    <row r="519" spans="1:5">
+      <c r="A519" t="s">
         <v>317</v>
       </c>
-      <c r="B518" t="s">
-        <v>1</v>
-      </c>
-      <c r="C518" t="s">
+      <c r="C519" t="s">
+        <v>1</v>
+      </c>
+      <c r="D519" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
-      <c r="C519" t="s">
+    <row r="520" spans="1:5">
+      <c r="D520" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
-      <c r="C520" t="s">
+    <row r="521" spans="1:5">
+      <c r="D521" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
-      <c r="C521" t="s">
+    <row r="522" spans="1:5">
+      <c r="D522" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
-      <c r="A522" t="s">
+    <row r="523" spans="1:5">
+      <c r="A523" t="s">
         <v>319</v>
       </c>
-      <c r="B522" t="s">
+      <c r="C523" t="s">
         <v>133</v>
       </c>
-      <c r="C522" t="s">
+      <c r="D523" t="s">
         <v>320</v>
       </c>
-      <c r="D522" t="s">
+      <c r="E523" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
-      <c r="C523" t="s">
+    <row r="524" spans="1:5">
+      <c r="D524" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
-      <c r="A524" t="s">
+    <row r="525" spans="1:5">
+      <c r="A525" t="s">
         <v>321</v>
       </c>
-      <c r="B524" t="s">
-        <v>1</v>
-      </c>
-      <c r="C524" t="s">
+      <c r="C525" t="s">
+        <v>1</v>
+      </c>
+      <c r="D525" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
-      <c r="A525" t="s">
+    <row r="526" spans="1:5">
+      <c r="A526" t="s">
         <v>322</v>
       </c>
-      <c r="B525" t="s">
-        <v>1</v>
-      </c>
-      <c r="C525" t="s">
+      <c r="C526" t="s">
+        <v>1</v>
+      </c>
+      <c r="D526" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
-      <c r="C526" t="s">
+    <row r="527" spans="1:5">
+      <c r="D527" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
-      <c r="A527" t="s">
+    <row r="528" spans="1:5">
+      <c r="A528" t="s">
         <v>323</v>
       </c>
-      <c r="B527" t="s">
-        <v>1</v>
-      </c>
-      <c r="C527" t="s">
+      <c r="C528" t="s">
+        <v>1</v>
+      </c>
+      <c r="D528" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
-      <c r="C528" t="s">
+    <row r="529" spans="1:4">
+      <c r="D529" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
-      <c r="C529" t="s">
+    <row r="530" spans="1:4">
+      <c r="D530" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
-      <c r="C530" t="s">
+    <row r="531" spans="1:4">
+      <c r="D531" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
-      <c r="A531" t="s">
+    <row r="532" spans="1:4">
+      <c r="A532" t="s">
         <v>324</v>
       </c>
-      <c r="B531" t="s">
-        <v>1</v>
-      </c>
-      <c r="C531" t="s">
+      <c r="C532" t="s">
+        <v>1</v>
+      </c>
+      <c r="D532" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
-      <c r="C532" t="s">
+    <row r="533" spans="1:4">
+      <c r="D533" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
-      <c r="C533" t="s">
+    <row r="534" spans="1:4">
+      <c r="D534" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
-      <c r="C534" t="s">
+    <row r="535" spans="1:4">
+      <c r="D535" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
-      <c r="A535" t="s">
+    <row r="536" spans="1:4">
+      <c r="A536" t="s">
         <v>325</v>
       </c>
-      <c r="B535" t="s">
-        <v>1</v>
-      </c>
-      <c r="C535" t="s">
+      <c r="C536" t="s">
+        <v>1</v>
+      </c>
+      <c r="D536" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
-      <c r="C536" t="s">
+    <row r="537" spans="1:4">
+      <c r="D537" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
-      <c r="A537" t="s">
+    <row r="538" spans="1:4">
+      <c r="A538" t="s">
         <v>326</v>
       </c>
-      <c r="B537" t="s">
-        <v>1</v>
-      </c>
-      <c r="C537" t="s">
+      <c r="C538" t="s">
+        <v>1</v>
+      </c>
+      <c r="D538" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
-      <c r="C538" t="s">
+    <row r="539" spans="1:4">
+      <c r="D539" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
-      <c r="C539" t="s">
+    <row r="540" spans="1:4">
+      <c r="D540" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
-      <c r="A540" t="s">
+    <row r="541" spans="1:4">
+      <c r="A541" t="s">
         <v>327</v>
       </c>
-      <c r="B540" t="s">
-        <v>1</v>
-      </c>
-      <c r="C540" t="s">
+      <c r="C541" t="s">
+        <v>1</v>
+      </c>
+      <c r="D541" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
-      <c r="C541" t="s">
+    <row r="542" spans="1:4">
+      <c r="D542" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
-      <c r="C542" t="s">
+    <row r="543" spans="1:4">
+      <c r="D543" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
-      <c r="C543" t="s">
+    <row r="544" spans="1:4">
+      <c r="D544" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
-      <c r="A544" t="s">
+    <row r="545" spans="1:5">
+      <c r="A545" t="s">
         <v>328</v>
       </c>
-      <c r="B544" t="s">
-        <v>1</v>
-      </c>
-      <c r="C544" t="s">
+      <c r="C545" t="s">
+        <v>1</v>
+      </c>
+      <c r="D545" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
-      <c r="C545" t="s">
+    <row r="546" spans="1:5">
+      <c r="D546" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
-      <c r="C546" t="s">
+    <row r="547" spans="1:5">
+      <c r="D547" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
-      <c r="C547" t="s">
+    <row r="548" spans="1:5">
+      <c r="D548" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
-      <c r="A548" t="s">
+    <row r="549" spans="1:5">
+      <c r="A549" t="s">
         <v>329</v>
       </c>
-      <c r="B548" t="s">
-        <v>1</v>
-      </c>
-      <c r="C548" t="s">
+      <c r="C549" t="s">
+        <v>1</v>
+      </c>
+      <c r="D549" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
-      <c r="A549" t="s">
+    <row r="550" spans="1:5">
+      <c r="A550" t="s">
         <v>330</v>
       </c>
-      <c r="B549" t="s">
-        <v>1</v>
-      </c>
-      <c r="C549" t="s">
+      <c r="C550" t="s">
+        <v>1</v>
+      </c>
+      <c r="D550" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
-      <c r="C550" t="s">
+    <row r="551" spans="1:5">
+      <c r="D551" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
-      <c r="A551" t="s">
+    <row r="552" spans="1:5">
+      <c r="A552" t="s">
         <v>331</v>
       </c>
-      <c r="B551" t="s">
-        <v>1</v>
-      </c>
-      <c r="C551" t="s">
+      <c r="C552" t="s">
+        <v>1</v>
+      </c>
+      <c r="D552" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
-      <c r="C552" t="s">
+    <row r="553" spans="1:5">
+      <c r="D553" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
-      <c r="C553" t="s">
+    <row r="554" spans="1:5">
+      <c r="D554" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
-      <c r="C554" t="s">
+    <row r="555" spans="1:5">
+      <c r="D555" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
-      <c r="A555" t="s">
+    <row r="556" spans="1:5">
+      <c r="A556" t="s">
         <v>332</v>
       </c>
-      <c r="B555" t="s">
-        <v>1</v>
-      </c>
-      <c r="C555" t="s">
+      <c r="C556" t="s">
+        <v>1</v>
+      </c>
+      <c r="D556" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
-      <c r="C556" t="s">
+    <row r="557" spans="1:5">
+      <c r="D557" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
-      <c r="C557" t="s">
+    <row r="558" spans="1:5">
+      <c r="D558" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
-      <c r="C558" t="s">
+    <row r="559" spans="1:5">
+      <c r="D559" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
-      <c r="A559" t="s">
+    <row r="560" spans="1:5">
+      <c r="A560" t="s">
         <v>333</v>
       </c>
-      <c r="B559" t="s">
+      <c r="C560" t="s">
         <v>133</v>
       </c>
-      <c r="C559" t="s">
+      <c r="D560" t="s">
         <v>59</v>
       </c>
-      <c r="D559" t="s">
+      <c r="E560" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
-      <c r="C560" t="s">
+    <row r="561" spans="1:5">
+      <c r="D561" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
-      <c r="A561" t="s">
+    <row r="562" spans="1:5">
+      <c r="A562" t="s">
         <v>334</v>
       </c>
-      <c r="B561" t="s">
+      <c r="C562" t="s">
         <v>133</v>
       </c>
-      <c r="C561" t="s">
+      <c r="D562" t="s">
         <v>335</v>
       </c>
-      <c r="D561" t="s">
+      <c r="E562" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
-      <c r="D562" t="s">
+    <row r="563" spans="1:5">
+      <c r="E563" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
-      <c r="D563" t="s">
+    <row r="564" spans="1:5">
+      <c r="E564" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
-      <c r="A564" t="s">
+    <row r="565" spans="1:5">
+      <c r="A565" t="s">
         <v>338</v>
       </c>
-      <c r="D564" t="s">
+      <c r="E565" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
-      <c r="D565" t="s">
+    <row r="566" spans="1:5">
+      <c r="E566" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
-      <c r="A566" t="s">
+    <row r="567" spans="1:5">
+      <c r="A567" t="s">
         <v>341</v>
       </c>
-      <c r="B566" t="s">
+      <c r="C567" t="s">
         <v>133</v>
       </c>
-      <c r="C566" t="s">
+      <c r="D567" t="s">
         <v>335</v>
       </c>
-      <c r="D566" t="s">
+      <c r="E567" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
-      <c r="D567" t="s">
+    <row r="568" spans="1:5">
+      <c r="E568" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
-      <c r="D568" t="s">
+    <row r="569" spans="1:5">
+      <c r="E569" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
-      <c r="D569" t="s">
+    <row r="570" spans="1:5">
+      <c r="E570" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
-      <c r="D570" t="s">
+    <row r="571" spans="1:5">
+      <c r="E571" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
-      <c r="A571" t="s">
+    <row r="572" spans="1:5">
+      <c r="A572" t="s">
         <v>346</v>
       </c>
-      <c r="B571" t="s">
+      <c r="C572" t="s">
         <v>133</v>
       </c>
-      <c r="C571" t="s">
+      <c r="D572" t="s">
         <v>335</v>
       </c>
-      <c r="D571" t="s">
+      <c r="E572" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
-      <c r="D572" t="s">
+    <row r="573" spans="1:5">
+      <c r="E573" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
-      <c r="D573" t="s">
+    <row r="574" spans="1:5">
+      <c r="E574" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
-      <c r="D574" t="s">
+    <row r="575" spans="1:5">
+      <c r="E575" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
-      <c r="D575" t="s">
+    <row r="576" spans="1:5">
+      <c r="E576" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
-      <c r="A576" t="s">
+    <row r="577" spans="1:5">
+      <c r="A577" t="s">
         <v>350</v>
       </c>
-      <c r="B576" t="s">
+      <c r="C577" t="s">
         <v>133</v>
       </c>
-      <c r="C576" t="s">
+      <c r="D577" t="s">
         <v>335</v>
       </c>
-      <c r="D576" t="s">
+      <c r="E577" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
-      <c r="D577" t="s">
+    <row r="578" spans="1:5">
+      <c r="E578" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
-      <c r="D578" t="s">
+    <row r="579" spans="1:5">
+      <c r="E579" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
-      <c r="D579" t="s">
+    <row r="580" spans="1:5">
+      <c r="E580" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
-      <c r="A580" t="s">
+    <row r="581" spans="1:5">
+      <c r="A581" t="s">
         <v>353</v>
       </c>
-      <c r="B580" t="s">
+      <c r="C581" t="s">
         <v>133</v>
       </c>
-      <c r="C580" t="s">
+      <c r="D581" t="s">
         <v>335</v>
       </c>
-      <c r="D580" t="s">
+      <c r="E581" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
-      <c r="D581" t="s">
+    <row r="582" spans="1:5">
+      <c r="E582" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
-      <c r="D582" t="s">
+    <row r="583" spans="1:5">
+      <c r="E583" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
-      <c r="D583" t="s">
+    <row r="584" spans="1:5">
+      <c r="E584" t="s">
         <v>356</v>
       </c>
     </row>
